--- a/class_assignment_result.xlsx
+++ b/class_assignment_result.xlsx
@@ -16,19 +16,14 @@
     <sheet name="반6" sheetId="7" r:id="rId7"/>
     <sheet name="요약통계" sheetId="8" r:id="rId8"/>
     <sheet name="교우관계" sheetId="9" r:id="rId9"/>
-    <sheet name="클럽분포1" sheetId="10" r:id="rId10"/>
-    <sheet name="클럽분포2" sheetId="11" r:id="rId11"/>
-    <sheet name="클럽분포3" sheetId="12" r:id="rId12"/>
-    <sheet name="클럽분포4" sheetId="13" r:id="rId13"/>
-    <sheet name="클럽분포5" sheetId="14" r:id="rId14"/>
-    <sheet name="클럽분포6" sheetId="15" r:id="rId15"/>
+    <sheet name="클럽분포" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="191">
   <si>
     <t>id</t>
   </si>
@@ -561,7 +556,7 @@
     <t>운동선호 학생 수</t>
   </si>
   <si>
-    <t>22:12</t>
+    <t>25:9</t>
   </si>
   <si>
     <t>21:13</t>
@@ -570,7 +565,10 @@
     <t>25:8</t>
   </si>
   <si>
-    <t>23:10</t>
+    <t>22:11</t>
+  </si>
+  <si>
+    <t>24:9</t>
   </si>
   <si>
     <t>학생</t>
@@ -586,6 +584,18 @@
   </si>
   <si>
     <t>상대 반</t>
+  </si>
+  <si>
+    <t>같은 반 여부</t>
+  </si>
+  <si>
+    <t>다른 반</t>
+  </si>
+  <si>
+    <t>같은 반</t>
+  </si>
+  <si>
+    <t>인원수</t>
   </si>
 </sst>
 </file>
@@ -662,16 +672,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>563887</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>129547</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304809</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -688,8 +698,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="190500"/>
-          <a:ext cx="3611887" cy="3749047"/>
+          <a:off x="2438400" y="0"/>
+          <a:ext cx="4572009" cy="4572009"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -698,41 +708,36 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>563887</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>129547</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304809</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="club_plot_2.png"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="club_plot_2.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="190500"/>
-          <a:ext cx="3611887" cy="3749047"/>
+          <a:off x="2438400" y="5715000"/>
+          <a:ext cx="4572009" cy="4572009"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -741,41 +746,36 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>554743</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>129547</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304809</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="club_plot_3.png"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="club_plot_3.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="190500"/>
-          <a:ext cx="3602743" cy="3749047"/>
+          <a:off x="2438400" y="11430000"/>
+          <a:ext cx="4572009" cy="4572009"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -784,41 +784,36 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>554743</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>129547</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304809</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="club_plot_4.png"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="club_plot_4.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="190500"/>
-          <a:ext cx="3602743" cy="3749047"/>
+          <a:off x="2438400" y="17145000"/>
+          <a:ext cx="4572009" cy="4572009"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -827,41 +822,36 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>554743</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>129547</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304809</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="club_plot_5.png"/>
+        <xdr:cNvPr id="6" name="Picture 5" descr="club_plot_5.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="190500"/>
-          <a:ext cx="3602743" cy="3749047"/>
+          <a:off x="2438400" y="22860000"/>
+          <a:ext cx="4572009" cy="4572009"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -870,41 +860,36 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>536455</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>129547</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304809</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="club_plot_6.png"/>
+        <xdr:cNvPr id="7" name="Picture 6" descr="club_plot_6.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="190500"/>
-          <a:ext cx="3584455" cy="3749047"/>
+          <a:off x="2438400" y="28575000"/>
+          <a:ext cx="4572009" cy="4572009"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1253,7 +1238,7 @@
         <v>202501</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1282,7 +1267,7 @@
         <v>202502</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -1308,7 +1293,7 @@
         <v>202503</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1337,7 +1322,7 @@
         <v>202504</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -1363,7 +1348,7 @@
         <v>202505</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1389,7 +1374,7 @@
         <v>202506</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -1415,7 +1400,7 @@
         <v>202507</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1438,7 +1423,7 @@
         <v>202508</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -1461,7 +1446,7 @@
         <v>202509</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -1490,7 +1475,7 @@
         <v>202510</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -1513,7 +1498,7 @@
         <v>202511</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -1539,7 +1524,7 @@
         <v>202512</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -1585,7 +1570,7 @@
         <v>202514</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -1608,7 +1593,7 @@
         <v>202515</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -1637,7 +1622,7 @@
         <v>202516</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1663,7 +1648,7 @@
         <v>202517</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1686,7 +1671,7 @@
         <v>202518</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -1712,7 +1697,7 @@
         <v>202519</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
@@ -1738,7 +1723,7 @@
         <v>202520</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -1761,7 +1746,7 @@
         <v>202521</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -1790,7 +1775,7 @@
         <v>202522</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
@@ -1848,7 +1833,7 @@
         <v>202524</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -1874,7 +1859,7 @@
         <v>202525</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -1897,7 +1882,7 @@
         <v>202526</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -1920,7 +1905,7 @@
         <v>202527</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
@@ -1943,7 +1928,7 @@
         <v>202528</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
@@ -1966,7 +1951,7 @@
         <v>202529</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
@@ -1992,7 +1977,7 @@
         <v>202530</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
@@ -2015,7 +2000,7 @@
         <v>202531</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
@@ -2038,7 +2023,7 @@
         <v>202532</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>43</v>
@@ -2084,7 +2069,7 @@
         <v>202534</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
@@ -2136,7 +2121,7 @@
         <v>202536</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
@@ -2159,7 +2144,7 @@
         <v>202537</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
@@ -2185,7 +2170,7 @@
         <v>202538</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
         <v>49</v>
@@ -2208,7 +2193,7 @@
         <v>202539</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -2257,7 +2242,7 @@
         <v>202541</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
         <v>51</v>
@@ -2280,7 +2265,7 @@
         <v>202542</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>52</v>
@@ -2306,7 +2291,7 @@
         <v>202543</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
         <v>53</v>
@@ -2404,7 +2389,7 @@
         <v>202547</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
         <v>57</v>
@@ -2453,7 +2438,7 @@
         <v>202549</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
         <v>59</v>
@@ -2476,7 +2461,7 @@
         <v>202550</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>60</v>
@@ -2499,7 +2484,7 @@
         <v>202551</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
         <v>43</v>
@@ -2522,7 +2507,7 @@
         <v>202552</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
         <v>61</v>
@@ -2545,7 +2530,7 @@
         <v>202553</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
         <v>62</v>
@@ -2571,7 +2556,7 @@
         <v>202554</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
         <v>63</v>
@@ -2597,7 +2582,7 @@
         <v>202555</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
         <v>64</v>
@@ -2626,7 +2611,7 @@
         <v>202556</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
         <v>65</v>
@@ -2649,7 +2634,7 @@
         <v>202557</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>66</v>
@@ -2675,7 +2660,7 @@
         <v>202558</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="s">
         <v>65</v>
@@ -2701,7 +2686,7 @@
         <v>202559</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2727,7 +2712,7 @@
         <v>202560</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2750,7 +2735,7 @@
         <v>202561</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2773,7 +2758,7 @@
         <v>202562</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -2802,7 +2787,7 @@
         <v>202563</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
         <v>70</v>
@@ -2828,7 +2813,7 @@
         <v>202564</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C65" t="s">
         <v>71</v>
@@ -2851,7 +2836,7 @@
         <v>202565</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>72</v>
@@ -2897,7 +2882,7 @@
         <v>202567</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>74</v>
@@ -2920,7 +2905,7 @@
         <v>202568</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C69" t="s">
         <v>75</v>
@@ -2946,7 +2931,7 @@
         <v>202569</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
         <v>76</v>
@@ -2972,7 +2957,7 @@
         <v>202570</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>38</v>
@@ -2995,7 +2980,7 @@
         <v>202571</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
         <v>77</v>
@@ -3021,7 +3006,7 @@
         <v>202572</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
         <v>78</v>
@@ -3044,7 +3029,7 @@
         <v>202573</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74" t="s">
         <v>79</v>
@@ -3067,7 +3052,7 @@
         <v>202574</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>80</v>
@@ -3090,7 +3075,7 @@
         <v>202575</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" t="s">
         <v>81</v>
@@ -3116,7 +3101,7 @@
         <v>202576</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
         <v>82</v>
@@ -3142,7 +3127,7 @@
         <v>202577</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
         <v>83</v>
@@ -3168,7 +3153,7 @@
         <v>202578</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>20</v>
@@ -3194,7 +3179,7 @@
         <v>202579</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
         <v>84</v>
@@ -3217,7 +3202,7 @@
         <v>202580</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C81" t="s">
         <v>85</v>
@@ -3240,7 +3225,7 @@
         <v>202581</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>86</v>
@@ -3263,7 +3248,7 @@
         <v>202582</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>87</v>
@@ -3286,7 +3271,7 @@
         <v>202583</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C84" t="s">
         <v>35</v>
@@ -3332,7 +3317,7 @@
         <v>202585</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86" t="s">
         <v>89</v>
@@ -3381,7 +3366,7 @@
         <v>202587</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>91</v>
@@ -3433,7 +3418,7 @@
         <v>202589</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C90" t="s">
         <v>72</v>
@@ -3482,7 +3467,7 @@
         <v>202591</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>94</v>
@@ -3505,7 +3490,7 @@
         <v>202592</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>95</v>
@@ -3563,7 +3548,7 @@
         <v>202594</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
         <v>83</v>
@@ -3609,7 +3594,7 @@
         <v>202596</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>98</v>
@@ -3658,7 +3643,7 @@
         <v>202598</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
         <v>30</v>
@@ -3687,7 +3672,7 @@
         <v>202599</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
@@ -3710,7 +3695,7 @@
         <v>202600</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>100</v>
@@ -3759,7 +3744,7 @@
         <v>202602</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>101</v>
@@ -3782,7 +3767,7 @@
         <v>202603</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
         <v>33</v>
@@ -3805,7 +3790,7 @@
         <v>202604</v>
       </c>
       <c r="B105">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C105" t="s">
         <v>102</v>
@@ -3828,7 +3813,7 @@
         <v>202605</v>
       </c>
       <c r="B106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
         <v>68</v>
@@ -3851,7 +3836,7 @@
         <v>202606</v>
       </c>
       <c r="B107">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C107" t="s">
         <v>43</v>
@@ -3897,7 +3882,7 @@
         <v>202608</v>
       </c>
       <c r="B109">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C109" t="s">
         <v>104</v>
@@ -3920,7 +3905,7 @@
         <v>202609</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C110" t="s">
         <v>105</v>
@@ -3946,7 +3931,7 @@
         <v>202610</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C111" t="s">
         <v>106</v>
@@ -3969,7 +3954,7 @@
         <v>202611</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>107</v>
@@ -3995,7 +3980,7 @@
         <v>202612</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>103</v>
@@ -4018,7 +4003,7 @@
         <v>202613</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>108</v>
@@ -4041,7 +4026,7 @@
         <v>202614</v>
       </c>
       <c r="B115">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C115" t="s">
         <v>91</v>
@@ -4070,7 +4055,7 @@
         <v>202615</v>
       </c>
       <c r="B116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>18</v>
@@ -4096,7 +4081,7 @@
         <v>202616</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>107</v>
@@ -4119,7 +4104,7 @@
         <v>202617</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C118" t="s">
         <v>109</v>
@@ -4142,7 +4127,7 @@
         <v>202618</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119" t="s">
         <v>47</v>
@@ -4211,7 +4196,7 @@
         <v>202621</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>112</v>
@@ -4237,7 +4222,7 @@
         <v>202622</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C123" t="s">
         <v>113</v>
@@ -4260,7 +4245,7 @@
         <v>202623</v>
       </c>
       <c r="B124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C124" t="s">
         <v>114</v>
@@ -4283,7 +4268,7 @@
         <v>202624</v>
       </c>
       <c r="B125">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>24</v>
@@ -4309,7 +4294,7 @@
         <v>202625</v>
       </c>
       <c r="B126">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C126" t="s">
         <v>115</v>
@@ -4355,7 +4340,7 @@
         <v>202627</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C128" t="s">
         <v>116</v>
@@ -4378,7 +4363,7 @@
         <v>202628</v>
       </c>
       <c r="B129">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>67</v>
@@ -4404,7 +4389,7 @@
         <v>202629</v>
       </c>
       <c r="B130">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C130" t="s">
         <v>117</v>
@@ -4433,7 +4418,7 @@
         <v>202630</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131" t="s">
         <v>54</v>
@@ -4459,7 +4444,7 @@
         <v>202631</v>
       </c>
       <c r="B132">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C132" t="s">
         <v>93</v>
@@ -4482,7 +4467,7 @@
         <v>202632</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>118</v>
@@ -4508,7 +4493,7 @@
         <v>202633</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>119</v>
@@ -4531,7 +4516,7 @@
         <v>202634</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C135" t="s">
         <v>120</v>
@@ -4557,7 +4542,7 @@
         <v>202635</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C136" t="s">
         <v>73</v>
@@ -4580,7 +4565,7 @@
         <v>202636</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>47</v>
@@ -4609,7 +4594,7 @@
         <v>202637</v>
       </c>
       <c r="B138">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
         <v>85</v>
@@ -4635,7 +4620,7 @@
         <v>202638</v>
       </c>
       <c r="B139">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>121</v>
@@ -4681,7 +4666,7 @@
         <v>202640</v>
       </c>
       <c r="B141">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>31</v>
@@ -4733,7 +4718,7 @@
         <v>202642</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C143" t="s">
         <v>122</v>
@@ -4756,7 +4741,7 @@
         <v>202643</v>
       </c>
       <c r="B144">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>57</v>
@@ -4779,7 +4764,7 @@
         <v>202644</v>
       </c>
       <c r="B145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C145" t="s">
         <v>37</v>
@@ -4808,7 +4793,7 @@
         <v>202645</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C146" t="s">
         <v>123</v>
@@ -4831,7 +4816,7 @@
         <v>202646</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C147" t="s">
         <v>124</v>
@@ -4854,7 +4839,7 @@
         <v>202647</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>125</v>
@@ -4880,7 +4865,7 @@
         <v>202648</v>
       </c>
       <c r="B149">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C149" t="s">
         <v>20</v>
@@ -4906,7 +4891,7 @@
         <v>202649</v>
       </c>
       <c r="B150">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C150" t="s">
         <v>98</v>
@@ -4929,7 +4914,7 @@
         <v>202650</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C151" t="s">
         <v>66</v>
@@ -4952,7 +4937,7 @@
         <v>202651</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>58</v>
@@ -4975,7 +4960,7 @@
         <v>202652</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C153" t="s">
         <v>122</v>
@@ -4998,7 +4983,7 @@
         <v>202653</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>116</v>
@@ -5021,7 +5006,7 @@
         <v>202654</v>
       </c>
       <c r="B155">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C155" t="s">
         <v>71</v>
@@ -5070,7 +5055,7 @@
         <v>202656</v>
       </c>
       <c r="B157">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C157" t="s">
         <v>126</v>
@@ -5096,7 +5081,7 @@
         <v>202657</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>127</v>
@@ -5122,7 +5107,7 @@
         <v>202658</v>
       </c>
       <c r="B159">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C159" t="s">
         <v>128</v>
@@ -5148,7 +5133,7 @@
         <v>202659</v>
       </c>
       <c r="B160">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C160" t="s">
         <v>34</v>
@@ -5171,7 +5156,7 @@
         <v>202660</v>
       </c>
       <c r="B161">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C161" t="s">
         <v>129</v>
@@ -5223,7 +5208,7 @@
         <v>202662</v>
       </c>
       <c r="B163">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C163" t="s">
         <v>93</v>
@@ -5246,7 +5231,7 @@
         <v>202663</v>
       </c>
       <c r="B164">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>130</v>
@@ -5269,7 +5254,7 @@
         <v>202664</v>
       </c>
       <c r="B165">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C165" t="s">
         <v>131</v>
@@ -5292,7 +5277,7 @@
         <v>202665</v>
       </c>
       <c r="B166">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>44</v>
@@ -5318,7 +5303,7 @@
         <v>202666</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C167" t="s">
         <v>126</v>
@@ -5341,7 +5326,7 @@
         <v>202667</v>
       </c>
       <c r="B168">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C168" t="s">
         <v>119</v>
@@ -5387,7 +5372,7 @@
         <v>202669</v>
       </c>
       <c r="B170">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C170" t="s">
         <v>132</v>
@@ -5410,7 +5395,7 @@
         <v>202670</v>
       </c>
       <c r="B171">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>133</v>
@@ -5439,7 +5424,7 @@
         <v>202671</v>
       </c>
       <c r="B172">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>33</v>
@@ -5537,7 +5522,7 @@
         <v>202675</v>
       </c>
       <c r="B176">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C176" t="s">
         <v>83</v>
@@ -5560,7 +5545,7 @@
         <v>202676</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C177" t="s">
         <v>135</v>
@@ -5589,7 +5574,7 @@
         <v>202677</v>
       </c>
       <c r="B178">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C178" t="s">
         <v>136</v>
@@ -5615,7 +5600,7 @@
         <v>202678</v>
       </c>
       <c r="B179">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>137</v>
@@ -5641,7 +5626,7 @@
         <v>202679</v>
       </c>
       <c r="B180">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C180" t="s">
         <v>103</v>
@@ -5667,7 +5652,7 @@
         <v>202680</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C181" t="s">
         <v>138</v>
@@ -5690,7 +5675,7 @@
         <v>202681</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C182" t="s">
         <v>139</v>
@@ -5716,7 +5701,7 @@
         <v>202682</v>
       </c>
       <c r="B183">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C183" t="s">
         <v>136</v>
@@ -5742,7 +5727,7 @@
         <v>202683</v>
       </c>
       <c r="B184">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>140</v>
@@ -5768,7 +5753,7 @@
         <v>202684</v>
       </c>
       <c r="B185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C185" t="s">
         <v>141</v>
@@ -5800,7 +5785,7 @@
         <v>202685</v>
       </c>
       <c r="B186">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C186" t="s">
         <v>83</v>
@@ -5823,7 +5808,7 @@
         <v>202686</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C187" t="s">
         <v>142</v>
@@ -5846,7 +5831,7 @@
         <v>202687</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>143</v>
@@ -5875,7 +5860,7 @@
         <v>202688</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C189" t="s">
         <v>98</v>
@@ -5901,7 +5886,7 @@
         <v>202689</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>141</v>
@@ -5930,7 +5915,7 @@
         <v>202690</v>
       </c>
       <c r="B191">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C191" t="s">
         <v>119</v>
@@ -5959,7 +5944,7 @@
         <v>202691</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C192" t="s">
         <v>116</v>
@@ -5985,7 +5970,7 @@
         <v>202692</v>
       </c>
       <c r="B193">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C193" t="s">
         <v>144</v>
@@ -6031,7 +6016,7 @@
         <v>202694</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C195" t="s">
         <v>145</v>
@@ -6057,7 +6042,7 @@
         <v>202695</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C196" t="s">
         <v>146</v>
@@ -6083,7 +6068,7 @@
         <v>202696</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C197" t="s">
         <v>103</v>
@@ -6129,7 +6114,7 @@
         <v>202698</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C199" t="s">
         <v>108</v>
@@ -6152,7 +6137,7 @@
         <v>202699</v>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C200" t="s">
         <v>147</v>
@@ -6181,7 +6166,7 @@
         <v>202700</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C201" t="s">
         <v>86</v>
@@ -6215,77 +6200,541 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>165</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>158</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>164</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>156</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>163</v>
+      </c>
+      <c r="B122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>159</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>157</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>161</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>162</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>164</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>156</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>165</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>160</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>163</v>
+      </c>
+      <c r="B152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>160</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>164</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>165</v>
+      </c>
+      <c r="B159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>157</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6342,51 +6791,48 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>202508</v>
+        <v>202510</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>202509</v>
+        <v>202535</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>149</v>
       </c>
       <c r="E3">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I3">
-        <v>202536</v>
+        <v>162</v>
       </c>
       <c r="K3" t="s">
         <v>166</v>
@@ -6394,100 +6840,97 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>202515</v>
+        <v>202536</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I4">
-        <v>202502</v>
-      </c>
-      <c r="L4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>202518</v>
+        <v>202544</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E5">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
-      </c>
-      <c r="M5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>202520</v>
+        <v>202545</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="J6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>202525</v>
+        <v>202551</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>148</v>
       </c>
       <c r="E7">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G7" t="s">
         <v>165</v>
@@ -6495,149 +6938,152 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>202530</v>
+        <v>202552</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>148</v>
       </c>
       <c r="E8">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
         <v>153</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>202534</v>
+        <v>202553</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
         <v>148</v>
       </c>
       <c r="E9">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
-      </c>
-      <c r="K9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>202535</v>
+        <v>202555</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
         <v>149</v>
       </c>
       <c r="E10">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K10" t="s">
+        <v>166</v>
+      </c>
+      <c r="L10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>202539</v>
+        <v>202556</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
         <v>148</v>
       </c>
       <c r="E11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>202544</v>
+        <v>202558</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G12" t="s">
-        <v>157</v>
+        <v>160</v>
+      </c>
+      <c r="M12" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>202545</v>
+        <v>202559</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
         <v>148</v>
       </c>
       <c r="E13">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
-      </c>
-      <c r="J13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s">
         <v>166</v>
@@ -6645,19 +7091,19 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>202554</v>
+        <v>202564</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
         <v>151</v>
@@ -6665,204 +7111,195 @@
       <c r="G14" t="s">
         <v>163</v>
       </c>
-      <c r="K14" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>202560</v>
+        <v>202568</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
         <v>148</v>
       </c>
       <c r="E15">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>164</v>
+      </c>
+      <c r="I15">
+        <v>202521</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>202565</v>
+        <v>202573</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E16">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>202569</v>
+        <v>202575</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E17">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
-        <v>163</v>
-      </c>
-      <c r="H17">
-        <v>202682</v>
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>202598</v>
+        <v>202580</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E18">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G18" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18">
-        <v>202588</v>
-      </c>
-      <c r="I18">
-        <v>202517</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>202603</v>
+        <v>202583</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E19">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>202633</v>
+        <v>202589</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
         <v>148</v>
       </c>
       <c r="E20">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>202636</v>
+        <v>202594</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E21">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
         <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>156</v>
-      </c>
-      <c r="J21" t="s">
-        <v>166</v>
-      </c>
-      <c r="M21" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22">
-        <v>202645</v>
+        <v>202599</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E22">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s">
         <v>157</v>
@@ -6870,53 +7307,53 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23">
-        <v>202646</v>
+        <v>202610</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E23">
         <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
-        <v>202652</v>
+        <v>202625</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
         <v>148</v>
       </c>
       <c r="E24">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F24" t="s">
         <v>150</v>
       </c>
       <c r="G24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25">
-        <v>202653</v>
+        <v>202627</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -6928,113 +7365,122 @@
         <v>148</v>
       </c>
       <c r="E25">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26">
-        <v>202657</v>
+        <v>202630</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
         <v>149</v>
       </c>
       <c r="E26">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F26" t="s">
         <v>152</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
-      </c>
-      <c r="J26" t="s">
-        <v>166</v>
+        <v>160</v>
+      </c>
+      <c r="H26">
+        <v>202611</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27">
-        <v>202666</v>
+        <v>202635</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E27">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28">
-        <v>202680</v>
+        <v>202644</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
         <v>148</v>
       </c>
       <c r="E28">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>163</v>
+        <v>158</v>
+      </c>
+      <c r="H28">
+        <v>202657</v>
+      </c>
+      <c r="M28" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29">
-        <v>202686</v>
+        <v>202648</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E29">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F29" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G29" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="K29" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30">
-        <v>202688</v>
+        <v>202649</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -7046,152 +7492,134 @@
         <v>148</v>
       </c>
       <c r="E30">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G30" t="s">
-        <v>161</v>
-      </c>
-      <c r="M30" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31">
-        <v>202689</v>
+        <v>202654</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
         <v>148</v>
       </c>
       <c r="E31">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G31" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="L31" t="s">
-        <v>166</v>
-      </c>
-      <c r="M31" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
-        <v>202691</v>
+        <v>202659</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
         <v>148</v>
       </c>
       <c r="E32">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
         <v>153</v>
       </c>
       <c r="G32" t="s">
-        <v>159</v>
-      </c>
-      <c r="J32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
-        <v>202694</v>
+        <v>202679</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
         <v>148</v>
       </c>
       <c r="E33">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s">
         <v>154</v>
       </c>
       <c r="G33" t="s">
-        <v>163</v>
-      </c>
-      <c r="J33" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>159</v>
+      </c>
+      <c r="K33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
-        <v>202696</v>
+        <v>202692</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
         <v>148</v>
       </c>
       <c r="E34">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G34" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
-        <v>202700</v>
+        <v>202698</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
         <v>148</v>
       </c>
       <c r="E35">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s">
         <v>151</v>
       </c>
       <c r="G35" t="s">
-        <v>162</v>
-      </c>
-      <c r="H35">
-        <v>202695</v>
-      </c>
-      <c r="I35">
-        <v>202693</v>
-      </c>
-      <c r="J35" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -7250,619 +7678,604 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>202504</v>
+        <v>202505</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>148</v>
       </c>
       <c r="E2">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
         <v>153</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I2">
-        <v>202677</v>
+        <v>157</v>
+      </c>
+      <c r="L2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>202512</v>
+        <v>202506</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>149</v>
       </c>
       <c r="E3">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="H3">
+        <v>202517</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>202521</v>
+        <v>202516</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I4">
-        <v>202568</v>
-      </c>
-      <c r="J4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>202529</v>
+        <v>202518</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>148</v>
       </c>
       <c r="E5">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G5" t="s">
         <v>158</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>202532</v>
+        <v>202520</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E6">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>202537</v>
+        <v>202524</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E7">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>202548</v>
+        <v>202527</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>148</v>
       </c>
       <c r="E8">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>202551</v>
+        <v>202528</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>148</v>
       </c>
       <c r="E9">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>202552</v>
+        <v>202530</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>148</v>
       </c>
       <c r="E10">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
         <v>153</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>202553</v>
+        <v>202541</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E11">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
-      </c>
-      <c r="M11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>202555</v>
+        <v>202548</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
-      </c>
-      <c r="K12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>202558</v>
+        <v>202554</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E13">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
         <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
-      </c>
-      <c r="M13" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>202575</v>
+        <v>202561</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
         <v>148</v>
       </c>
       <c r="E14">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
-        <v>161</v>
-      </c>
-      <c r="J14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>202579</v>
+        <v>202576</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>202582</v>
+        <v>202577</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
         <v>149</v>
       </c>
       <c r="E16">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="I16">
+        <v>202650</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>202585</v>
+        <v>202590</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
         <v>148</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>202590</v>
+        <v>202598</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E18">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
         <v>162</v>
       </c>
+      <c r="H18">
+        <v>202588</v>
+      </c>
+      <c r="I18">
+        <v>202517</v>
+      </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>202591</v>
+        <v>202601</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>149</v>
       </c>
       <c r="E19">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="I19">
+        <v>202621</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>202592</v>
+        <v>202605</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
         <v>148</v>
       </c>
       <c r="E20">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
         <v>152</v>
       </c>
       <c r="G20" t="s">
-        <v>158</v>
-      </c>
-      <c r="H20">
-        <v>202613</v>
-      </c>
-      <c r="J20" t="s">
-        <v>166</v>
-      </c>
-      <c r="L20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>202594</v>
+        <v>202606</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E21">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>202600</v>
+        <v>202617</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
         <v>148</v>
       </c>
       <c r="E22">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
-        <v>202601</v>
+        <v>202618</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E23">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G23" t="s">
-        <v>163</v>
-      </c>
-      <c r="I23">
-        <v>202621</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>202602</v>
+        <v>202620</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
         <v>149</v>
       </c>
       <c r="E24">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G24" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
-        <v>202609</v>
+        <v>202623</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E25">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
         <v>154</v>
       </c>
       <c r="G25" t="s">
-        <v>157</v>
-      </c>
-      <c r="K25" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26">
-        <v>202610</v>
+        <v>202637</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
         <v>148</v>
       </c>
       <c r="E26">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
         <v>153</v>
@@ -7870,229 +8283,232 @@
       <c r="G26" t="s">
         <v>164</v>
       </c>
+      <c r="L26" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27">
-        <v>202613</v>
+        <v>202642</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
         <v>148</v>
       </c>
       <c r="E27">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28">
-        <v>202620</v>
+        <v>202656</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
         <v>149</v>
       </c>
       <c r="E28">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>159</v>
+        <v>165</v>
+      </c>
+      <c r="K28" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29">
-        <v>202622</v>
+        <v>202658</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E29">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F29" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G29" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="I29">
+        <v>202641</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30">
-        <v>202630</v>
+        <v>202660</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E30">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G30" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H30">
-        <v>202611</v>
+        <v>202647</v>
+      </c>
+      <c r="J30" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31">
-        <v>202634</v>
+        <v>202664</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
         <v>148</v>
       </c>
       <c r="E31">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G31" t="s">
-        <v>164</v>
-      </c>
-      <c r="H31">
-        <v>202596</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32">
-        <v>202635</v>
+        <v>202666</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E32">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G32" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33">
-        <v>202681</v>
+        <v>202686</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
         <v>148</v>
       </c>
       <c r="E33">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
         <v>150</v>
       </c>
       <c r="G33" t="s">
-        <v>162</v>
-      </c>
-      <c r="I33">
-        <v>202671</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34">
-        <v>202695</v>
+        <v>202688</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E34">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G34" t="s">
-        <v>160</v>
-      </c>
-      <c r="H34">
-        <v>202700</v>
+        <v>161</v>
+      </c>
+      <c r="M34" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35">
-        <v>202699</v>
+        <v>202694</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E35">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F35" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G35" t="s">
-        <v>156</v>
-      </c>
-      <c r="I35">
-        <v>202644</v>
-      </c>
-      <c r="M35" t="s">
+        <v>163</v>
+      </c>
+      <c r="J35" t="s">
         <v>166</v>
       </c>
     </row>
@@ -8152,275 +8568,299 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>202510</v>
+        <v>202503</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>148</v>
       </c>
       <c r="E2">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>158</v>
+      </c>
+      <c r="J2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>202511</v>
+        <v>202508</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>149</v>
       </c>
       <c r="E3">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
         <v>152</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
-      </c>
-      <c r="M3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>202514</v>
+        <v>202509</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>149</v>
       </c>
       <c r="E4">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
         <v>154</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>158</v>
+      </c>
+      <c r="I4">
+        <v>202536</v>
+      </c>
+      <c r="K4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>202531</v>
+        <v>202522</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="J5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>202536</v>
+        <v>202529</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>148</v>
       </c>
       <c r="E6">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
-        <v>165</v>
+        <v>158</v>
+      </c>
+      <c r="K6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>202540</v>
+        <v>202538</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>202541</v>
+        <v>202540</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
         <v>149</v>
       </c>
       <c r="E8">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
         <v>152</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="K8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>202542</v>
+        <v>202562</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>148</v>
       </c>
       <c r="E9">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
         <v>153</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
-      </c>
-      <c r="J9" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="H9">
+        <v>202545</v>
+      </c>
+      <c r="I9">
+        <v>202619</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>202567</v>
+        <v>202563</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E10">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G10" t="s">
-        <v>156</v>
+        <v>160</v>
+      </c>
+      <c r="L10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>202570</v>
+        <v>202572</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E11">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>202573</v>
+        <v>202579</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
         <v>149</v>
       </c>
       <c r="E12">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>202574</v>
+        <v>202585</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
         <v>148</v>
@@ -8429,27 +8869,30 @@
         <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="J13" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>202578</v>
+        <v>202586</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
         <v>154</v>
@@ -8457,293 +8900,284 @@
       <c r="G14" t="s">
         <v>165</v>
       </c>
-      <c r="K14" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>202580</v>
+        <v>202595</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
         <v>148</v>
       </c>
       <c r="E15">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>202586</v>
+        <v>202597</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
         <v>148</v>
       </c>
       <c r="E16">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>202589</v>
+        <v>202603</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>148</v>
       </c>
       <c r="E17">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
-      </c>
-      <c r="J17" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>202595</v>
+        <v>202604</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E18">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
         <v>150</v>
       </c>
       <c r="G18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>202597</v>
+        <v>202608</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
         <v>148</v>
       </c>
       <c r="E19">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>202611</v>
+        <v>202622</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
         <v>148</v>
       </c>
       <c r="E20">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G20" t="s">
-        <v>159</v>
-      </c>
-      <c r="J20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>202618</v>
+        <v>202631</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
         <v>148</v>
       </c>
       <c r="E21">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22">
-        <v>202621</v>
+        <v>202634</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E22">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F22" t="s">
         <v>151</v>
       </c>
       <c r="G22" t="s">
-        <v>158</v>
-      </c>
-      <c r="I22">
-        <v>202601</v>
+        <v>164</v>
+      </c>
+      <c r="H22">
+        <v>202596</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23">
-        <v>202627</v>
+        <v>202641</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
         <v>148</v>
       </c>
       <c r="E23">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>163</v>
+      </c>
+      <c r="K23" t="s">
+        <v>166</v>
+      </c>
+      <c r="L23" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
-        <v>202641</v>
+        <v>202652</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
         <v>148</v>
       </c>
       <c r="E24">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G24" t="s">
-        <v>163</v>
-      </c>
-      <c r="K24" t="s">
-        <v>166</v>
-      </c>
-      <c r="L24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25">
-        <v>202642</v>
+        <v>202662</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
         <v>148</v>
       </c>
       <c r="E25">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26">
-        <v>202644</v>
+        <v>202669</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
         <v>148</v>
       </c>
       <c r="E26">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
         <v>150</v>
@@ -8751,222 +9185,213 @@
       <c r="G26" t="s">
         <v>158</v>
       </c>
-      <c r="H26">
-        <v>202657</v>
-      </c>
-      <c r="M26" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27">
-        <v>202647</v>
+        <v>202673</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
         <v>148</v>
       </c>
       <c r="E27">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
         <v>151</v>
       </c>
       <c r="G27" t="s">
-        <v>157</v>
-      </c>
-      <c r="H27">
-        <v>202660</v>
+        <v>163</v>
+      </c>
+      <c r="L27" t="s">
+        <v>166</v>
+      </c>
+      <c r="M27" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28">
-        <v>202650</v>
+        <v>202675</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E28">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29">
-        <v>202651</v>
+        <v>202677</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
         <v>148</v>
       </c>
       <c r="E29">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G29" t="s">
         <v>159</v>
       </c>
+      <c r="I29">
+        <v>202504</v>
+      </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30">
-        <v>202673</v>
+        <v>202680</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
         <v>148</v>
       </c>
       <c r="E30">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G30" t="s">
         <v>163</v>
       </c>
-      <c r="L30" t="s">
-        <v>166</v>
-      </c>
-      <c r="M30" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31">
-        <v>202676</v>
+        <v>202681</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
         <v>148</v>
       </c>
       <c r="E31">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s">
         <v>150</v>
       </c>
       <c r="G31" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I31">
-        <v>202679</v>
-      </c>
-      <c r="L31" t="s">
-        <v>166</v>
+        <v>202671</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
-        <v>202683</v>
+        <v>202682</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D32" t="s">
         <v>148</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G32" t="s">
-        <v>160</v>
-      </c>
-      <c r="K32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>165</v>
+      </c>
+      <c r="L32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
-        <v>202684</v>
+        <v>202690</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
         <v>148</v>
       </c>
       <c r="E33">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G33" t="s">
-        <v>160</v>
-      </c>
-      <c r="J33" t="s">
-        <v>166</v>
-      </c>
-      <c r="L33" t="s">
-        <v>166</v>
-      </c>
-      <c r="M33" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>161</v>
+      </c>
+      <c r="H33">
+        <v>202674</v>
+      </c>
+      <c r="I33">
+        <v>202695</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
-        <v>202698</v>
+        <v>202691</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
         <v>148</v>
       </c>
       <c r="E34">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G34" t="s">
         <v>159</v>
+      </c>
+      <c r="J34" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -9025,604 +9450,616 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>202505</v>
+        <v>202507</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>148</v>
       </c>
       <c r="E2">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
-      </c>
-      <c r="L2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>202513</v>
+        <v>202512</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E3">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
         <v>151</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>202519</v>
+        <v>202513</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>202522</v>
+        <v>202515</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E5">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>159</v>
-      </c>
-      <c r="J5" t="s">
-        <v>166</v>
-      </c>
-      <c r="M5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5">
+        <v>202502</v>
+      </c>
+      <c r="L5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>202526</v>
+        <v>202521</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E6">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>163</v>
+      </c>
+      <c r="I6">
+        <v>202568</v>
+      </c>
+      <c r="J6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>202533</v>
+        <v>202525</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>148</v>
       </c>
       <c r="E7">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>202538</v>
+        <v>202533</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
         <v>148</v>
       </c>
       <c r="E8">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
         <v>151</v>
       </c>
       <c r="G8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>202550</v>
+        <v>202534</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>148</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G9" t="s">
         <v>164</v>
       </c>
+      <c r="K9" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>202556</v>
+        <v>202537</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
         <v>148</v>
       </c>
       <c r="E10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G10" t="s">
-        <v>156</v>
+        <v>162</v>
+      </c>
+      <c r="L10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>202561</v>
+        <v>202543</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
         <v>148</v>
       </c>
       <c r="E11">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>202563</v>
+        <v>202547</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12">
         <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G12" t="s">
-        <v>160</v>
-      </c>
-      <c r="L12" t="s">
+        <v>158</v>
+      </c>
+      <c r="M12" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>202581</v>
+        <v>202549</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
         <v>148</v>
       </c>
       <c r="E13">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
         <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>202584</v>
+        <v>202569</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
         <v>149</v>
       </c>
       <c r="E14">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="H14">
+        <v>202682</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>202587</v>
+        <v>202571</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15">
-        <v>202678</v>
-      </c>
-      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>202599</v>
+        <v>202584</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
         <v>149</v>
       </c>
       <c r="E16">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>202605</v>
+        <v>202609</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
         <v>148</v>
       </c>
       <c r="E17">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+      <c r="K17" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>202616</v>
+        <v>202614</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E18">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>158</v>
+        <v>163</v>
+      </c>
+      <c r="I18">
+        <v>202613</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>202623</v>
+        <v>202626</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E19">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>202624</v>
+        <v>202629</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E20">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
-        <v>163</v>
-      </c>
-      <c r="K20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I20">
+        <v>202639</v>
+      </c>
+      <c r="J20" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>202625</v>
+        <v>202645</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
         <v>148</v>
       </c>
       <c r="E21">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22">
-        <v>202626</v>
+        <v>202646</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E22">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23">
-        <v>202632</v>
+        <v>202650</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
         <v>148</v>
       </c>
       <c r="E23">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
-      </c>
-      <c r="M23" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
-        <v>202656</v>
+        <v>202667</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G24" t="s">
-        <v>165</v>
-      </c>
-      <c r="K24" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25">
-        <v>202659</v>
+        <v>202672</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
         <v>148</v>
       </c>
       <c r="E25">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G25" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26">
-        <v>202669</v>
+        <v>202674</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E26">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G26" t="s">
         <v>158</v>
@@ -9630,201 +10067,219 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27">
-        <v>202671</v>
+        <v>202676</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
         <v>148</v>
       </c>
       <c r="E27">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G27" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="I27">
+        <v>202679</v>
+      </c>
+      <c r="L27" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28">
-        <v>202672</v>
+        <v>202684</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
         <v>148</v>
       </c>
       <c r="E28">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G28" t="s">
-        <v>165</v>
+        <v>160</v>
+      </c>
+      <c r="J28" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" t="s">
+        <v>166</v>
+      </c>
+      <c r="M28" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29">
-        <v>202674</v>
+        <v>202685</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
         <v>149</v>
       </c>
       <c r="E29">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G29" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30">
-        <v>202675</v>
+        <v>202695</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="D30" t="s">
         <v>149</v>
       </c>
       <c r="E30">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G30" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="H30">
+        <v>202700</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31">
-        <v>202678</v>
+        <v>202696</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
         <v>148</v>
       </c>
       <c r="E31">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F31" t="s">
         <v>150</v>
       </c>
       <c r="G31" t="s">
-        <v>162</v>
-      </c>
-      <c r="L31" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
-        <v>202687</v>
+        <v>202697</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
         <v>148</v>
       </c>
       <c r="E32">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s">
         <v>155</v>
       </c>
       <c r="G32" t="s">
-        <v>157</v>
-      </c>
-      <c r="J32" t="s">
-        <v>166</v>
-      </c>
-      <c r="M32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
-        <v>202690</v>
+        <v>202699</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E33">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G33" t="s">
-        <v>161</v>
-      </c>
-      <c r="H33">
-        <v>202674</v>
+        <v>156</v>
       </c>
       <c r="I33">
-        <v>202695</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>202644</v>
+      </c>
+      <c r="M33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
-        <v>202697</v>
+        <v>202700</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
         <v>148</v>
       </c>
       <c r="E34">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G34" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="H34">
+        <v>202695</v>
+      </c>
+      <c r="I34">
+        <v>202693</v>
+      </c>
+      <c r="J34" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -9883,259 +10338,247 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>202501</v>
+        <v>202502</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E2">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2">
-        <v>202502</v>
-      </c>
-      <c r="I2">
-        <v>202503</v>
+        <v>157</v>
+      </c>
+      <c r="K2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>202507</v>
+        <v>202511</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="M3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>202523</v>
+        <v>202517</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>148</v>
       </c>
       <c r="E4">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
         <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
-      </c>
-      <c r="K4" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>202524</v>
+        <v>202519</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>149</v>
       </c>
       <c r="E5">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G5" t="s">
-        <v>159</v>
-      </c>
-      <c r="K5" t="s">
+        <v>161</v>
+      </c>
+      <c r="M5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>202543</v>
+        <v>202523</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>148</v>
       </c>
       <c r="E6">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="K6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>202547</v>
+        <v>202531</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E7">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>202557</v>
+        <v>202542</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
         <v>148</v>
       </c>
       <c r="E8">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
-      </c>
-      <c r="M8" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>202559</v>
+        <v>202550</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>148</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G9" t="s">
-        <v>162</v>
-      </c>
-      <c r="L9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>202562</v>
+        <v>202560</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
         <v>148</v>
       </c>
       <c r="E10">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10">
-        <v>202545</v>
-      </c>
-      <c r="I10">
-        <v>202619</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>202566</v>
+        <v>202565</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
         <v>148</v>
       </c>
       <c r="E11">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G11" t="s">
         <v>159</v>
@@ -10143,13 +10586,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>202568</v>
+        <v>202566</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
         <v>148</v>
@@ -10161,47 +10604,41 @@
         <v>154</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
-      </c>
-      <c r="I12">
-        <v>202521</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>202571</v>
+        <v>202567</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
         <v>148</v>
       </c>
       <c r="E13">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
-      </c>
-      <c r="K13" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>202576</v>
+        <v>202581</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
         <v>148</v>
@@ -10210,402 +10647,408 @@
         <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
-        <v>157</v>
-      </c>
-      <c r="K14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>202593</v>
+        <v>202592</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
         <v>148</v>
       </c>
       <c r="E15">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
         <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H15">
-        <v>202632</v>
+        <v>202613</v>
+      </c>
+      <c r="J15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>202604</v>
+        <v>202593</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E16">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="H16">
+        <v>202632</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>202607</v>
+        <v>202596</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
         <v>148</v>
       </c>
       <c r="E17">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="H17">
+        <v>202634</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>202612</v>
+        <v>202600</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
         <v>148</v>
       </c>
       <c r="E18">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>202615</v>
+        <v>202607</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E19">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19">
-        <v>202670</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>202628</v>
+        <v>202611</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
         <v>148</v>
       </c>
       <c r="E20">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G20" t="s">
-        <v>158</v>
-      </c>
-      <c r="H20">
-        <v>202687</v>
+        <v>159</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>202629</v>
+        <v>202613</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
         <v>148</v>
       </c>
       <c r="E21">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G21" t="s">
-        <v>161</v>
-      </c>
-      <c r="I21">
-        <v>202639</v>
-      </c>
-      <c r="J21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22">
-        <v>202638</v>
+        <v>202621</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E22">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G22" t="s">
-        <v>165</v>
+        <v>158</v>
+      </c>
+      <c r="I22">
+        <v>202601</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23">
-        <v>202649</v>
+        <v>202632</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23">
         <v>98</v>
       </c>
-      <c r="D23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23">
-        <v>77</v>
-      </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G23" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="M23" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
-        <v>202655</v>
+        <v>202633</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
         <v>148</v>
       </c>
       <c r="E24">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
         <v>154</v>
       </c>
       <c r="G24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25">
-        <v>202658</v>
+        <v>202640</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
         <v>149</v>
       </c>
       <c r="E25">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G25" t="s">
-        <v>163</v>
-      </c>
-      <c r="I25">
-        <v>202641</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26">
-        <v>202662</v>
+        <v>202643</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
         <v>148</v>
       </c>
       <c r="E26">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27">
-        <v>202663</v>
+        <v>202647</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E27">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>157</v>
+      </c>
+      <c r="H27">
+        <v>202660</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28">
-        <v>202664</v>
+        <v>202653</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
         <v>148</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G28" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29">
-        <v>202665</v>
+        <v>202655</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
         <v>148</v>
       </c>
       <c r="E29">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F29" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G29" t="s">
-        <v>164</v>
-      </c>
-      <c r="M29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30">
-        <v>202667</v>
+        <v>202657</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E30">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G30" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="J30" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -10633,57 +11076,57 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
-        <v>202670</v>
+        <v>202671</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
         <v>148</v>
       </c>
       <c r="E32">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G32" t="s">
-        <v>163</v>
-      </c>
-      <c r="H32">
-        <v>202615</v>
-      </c>
-      <c r="L32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
-        <v>202685</v>
+        <v>202689</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E33">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F33" t="s">
         <v>154</v>
       </c>
       <c r="G33" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>163</v>
+      </c>
+      <c r="L33" t="s">
+        <v>166</v>
+      </c>
+      <c r="M33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>202693</v>
       </c>
@@ -10762,319 +11205,322 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>202502</v>
+        <v>202501</v>
       </c>
       <c r="B2">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" t="s">
-        <v>166</v>
+        <v>156</v>
+      </c>
+      <c r="H2">
+        <v>202502</v>
+      </c>
+      <c r="I2">
+        <v>202503</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>202503</v>
+        <v>202504</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>148</v>
       </c>
       <c r="E3">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M3" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="I3">
+        <v>202677</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>202506</v>
+        <v>202514</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>149</v>
       </c>
       <c r="E4">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4">
-        <v>202517</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>202516</v>
+        <v>202526</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>148</v>
       </c>
       <c r="E5">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
-      </c>
-      <c r="M5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>202517</v>
+        <v>202532</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>148</v>
       </c>
       <c r="E6">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>202527</v>
+        <v>202539</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>148</v>
       </c>
       <c r="E7">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
         <v>150</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>202528</v>
+        <v>202546</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
         <v>148</v>
       </c>
       <c r="E8">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>202546</v>
+        <v>202557</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
         <v>148</v>
       </c>
       <c r="E9">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="M9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>202549</v>
+        <v>202570</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>148</v>
       </c>
       <c r="E10">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
         <v>154</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>202564</v>
+        <v>202574</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
         <v>148</v>
       </c>
       <c r="E11">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>202572</v>
+        <v>202578</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>149</v>
       </c>
       <c r="E12">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G12" t="s">
-        <v>156</v>
+        <v>165</v>
+      </c>
+      <c r="K12" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>202577</v>
+        <v>202582</v>
       </c>
       <c r="B13">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
         <v>149</v>
       </c>
       <c r="E13">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
-      </c>
-      <c r="I13">
-        <v>202650</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>202583</v>
+        <v>202587</v>
       </c>
       <c r="B14">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
         <v>149</v>
       </c>
       <c r="E14">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
         <v>155</v>
       </c>
       <c r="G14" t="s">
         <v>165</v>
+      </c>
+      <c r="H14">
+        <v>202678</v>
+      </c>
+      <c r="L14" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -11102,129 +11548,123 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>202596</v>
+        <v>202591</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E16">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>159</v>
-      </c>
-      <c r="H16">
-        <v>202634</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
-        <v>202606</v>
+        <v>202602</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E17">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
-        <v>202608</v>
+        <v>202612</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
         <v>148</v>
       </c>
       <c r="E18">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
-        <v>202614</v>
+        <v>202615</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>149</v>
       </c>
       <c r="E19">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
-      </c>
-      <c r="I19">
-        <v>202613</v>
-      </c>
-      <c r="J19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>159</v>
+      </c>
+      <c r="H19">
+        <v>202670</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
-        <v>202617</v>
+        <v>202616</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
         <v>148</v>
       </c>
       <c r="E20">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>202619</v>
       </c>
@@ -11247,327 +11687,336 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22">
-        <v>202631</v>
+        <v>202624</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E22">
         <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>163</v>
+      </c>
+      <c r="K22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
-        <v>202637</v>
+        <v>202628</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
         <v>148</v>
       </c>
       <c r="E23">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G23" t="s">
-        <v>164</v>
-      </c>
-      <c r="L23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>158</v>
+      </c>
+      <c r="H23">
+        <v>202687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
-        <v>202639</v>
+        <v>202636</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
         <v>148</v>
       </c>
       <c r="E24">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>156</v>
+      </c>
+      <c r="J24" t="s">
+        <v>166</v>
+      </c>
+      <c r="M24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
-        <v>202640</v>
+        <v>202638</v>
       </c>
       <c r="B25">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E25">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26">
-        <v>202643</v>
+        <v>202639</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
         <v>148</v>
       </c>
       <c r="E26">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
-        <v>202648</v>
+        <v>202651</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E27">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G27" t="s">
-        <v>163</v>
-      </c>
-      <c r="K27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
-        <v>202654</v>
+        <v>202661</v>
       </c>
       <c r="B28">
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
         <v>148</v>
       </c>
       <c r="E28">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>156</v>
-      </c>
-      <c r="L28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
-        <v>202660</v>
+        <v>202663</v>
       </c>
       <c r="B29">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E29">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G29" t="s">
-        <v>156</v>
-      </c>
-      <c r="H29">
-        <v>202647</v>
-      </c>
-      <c r="J29" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
-        <v>202661</v>
+        <v>202665</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
         <v>148</v>
       </c>
       <c r="E30">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>164</v>
+      </c>
+      <c r="M30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
-        <v>202677</v>
+        <v>202670</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
         <v>148</v>
       </c>
       <c r="E31">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G31" t="s">
-        <v>159</v>
-      </c>
-      <c r="I31">
-        <v>202504</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>163</v>
+      </c>
+      <c r="H31">
+        <v>202615</v>
+      </c>
+      <c r="L31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
-        <v>202679</v>
+        <v>202678</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="D32" t="s">
         <v>148</v>
       </c>
       <c r="E32">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G32" t="s">
-        <v>159</v>
-      </c>
-      <c r="K32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>162</v>
+      </c>
+      <c r="L32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
-        <v>202682</v>
+        <v>202683</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
         <v>148</v>
       </c>
       <c r="E33">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G33" t="s">
-        <v>165</v>
-      </c>
-      <c r="L33" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>160</v>
+      </c>
+      <c r="K33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
-        <v>202692</v>
+        <v>202687</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
         <v>148</v>
       </c>
       <c r="E34">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G34" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="J34" t="s">
+        <v>166</v>
+      </c>
+      <c r="M34" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -11623,28 +12072,28 @@
         <v>34</v>
       </c>
       <c r="C2">
-        <v>80.56</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>177</v>
       </c>
       <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
         <v>3</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
       </c>
       <c r="I2">
         <v>4</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11655,7 +12104,7 @@
         <v>34</v>
       </c>
       <c r="C3">
-        <v>77.59</v>
+        <v>79.38</v>
       </c>
       <c r="D3">
         <v>21</v>
@@ -11667,13 +12116,13 @@
         <v>178</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
         <v>4</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -11687,7 +12136,7 @@
         <v>33</v>
       </c>
       <c r="C4">
-        <v>80.39</v>
+        <v>82.18000000000001</v>
       </c>
       <c r="D4">
         <v>25</v>
@@ -11708,7 +12157,7 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11719,13 +12168,13 @@
         <v>33</v>
       </c>
       <c r="C5">
-        <v>78.27</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>180</v>
@@ -11734,13 +12183,13 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11751,28 +12200,28 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
         <v>4</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11783,28 +12232,28 @@
         <v>33</v>
       </c>
       <c r="C7">
-        <v>78.76000000000001</v>
+        <v>78.94</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -11814,30 +12263,33 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>186</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>202501</v>
       </c>
@@ -11848,13 +12300,16 @@
         <v>7</v>
       </c>
       <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>202506</v>
       </c>
@@ -11865,13 +12320,16 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>202562</v>
       </c>
@@ -11882,13 +12340,16 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>202569</v>
       </c>
@@ -11899,13 +12360,16 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>202587</v>
       </c>
@@ -11916,13 +12380,16 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>202592</v>
       </c>
@@ -11933,13 +12400,16 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>202593</v>
       </c>
@@ -11953,10 +12423,13 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>202596</v>
       </c>
@@ -11967,13 +12440,16 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>202598</v>
       </c>
@@ -11984,13 +12460,16 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>202615</v>
       </c>
@@ -12001,13 +12480,16 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>202628</v>
       </c>
@@ -12018,13 +12500,16 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>202630</v>
       </c>
@@ -12035,13 +12520,16 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>202634</v>
       </c>
@@ -12052,13 +12540,16 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>202644</v>
       </c>
@@ -12069,13 +12560,16 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>202647</v>
       </c>
@@ -12086,13 +12580,16 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>202660</v>
       </c>
@@ -12103,13 +12600,16 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>202670</v>
       </c>
@@ -12120,13 +12620,16 @@
         <v>7</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>202690</v>
       </c>
@@ -12137,13 +12640,16 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>202695</v>
       </c>
@@ -12154,13 +12660,16 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>202700</v>
       </c>
@@ -12171,13 +12680,16 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>202501</v>
       </c>
@@ -12188,13 +12700,16 @@
         <v>8</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>202504</v>
       </c>
@@ -12205,13 +12720,16 @@
         <v>8</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>202509</v>
       </c>
@@ -12222,13 +12740,16 @@
         <v>8</v>
       </c>
       <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
         <v>1</v>
       </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>202515</v>
       </c>
@@ -12239,13 +12760,16 @@
         <v>8</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>202521</v>
       </c>
@@ -12256,13 +12780,16 @@
         <v>8</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>202562</v>
       </c>
@@ -12273,13 +12800,16 @@
         <v>8</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>202568</v>
       </c>
@@ -12290,13 +12820,16 @@
         <v>8</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>202577</v>
       </c>
@@ -12307,13 +12840,16 @@
         <v>8</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>202598</v>
       </c>
@@ -12324,13 +12860,16 @@
         <v>8</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>202601</v>
       </c>
@@ -12344,10 +12883,13 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>202614</v>
       </c>
@@ -12358,13 +12900,16 @@
         <v>8</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>202621</v>
       </c>
@@ -12375,13 +12920,16 @@
         <v>8</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>202629</v>
       </c>
@@ -12392,13 +12940,16 @@
         <v>8</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>202658</v>
       </c>
@@ -12409,13 +12960,16 @@
         <v>8</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>202676</v>
       </c>
@@ -12426,13 +12980,16 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>202677</v>
       </c>
@@ -12443,13 +13000,16 @@
         <v>8</v>
       </c>
       <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
         <v>6</v>
       </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>202681</v>
       </c>
@@ -12460,13 +13020,16 @@
         <v>8</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>202690</v>
       </c>
@@ -12477,13 +13040,16 @@
         <v>8</v>
       </c>
       <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
         <v>4</v>
       </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>202699</v>
       </c>
@@ -12494,13 +13060,16 @@
         <v>8</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>202700</v>
       </c>
@@ -12511,10 +13080,13 @@
         <v>8</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E41">
         <v>5</v>
+      </c>
+      <c r="F41" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/class_assignment_result.xlsx
+++ b/class_assignment_result.xlsx
@@ -16,14 +16,19 @@
     <sheet name="반6" sheetId="7" r:id="rId7"/>
     <sheet name="요약통계" sheetId="8" r:id="rId8"/>
     <sheet name="교우관계" sheetId="9" r:id="rId9"/>
-    <sheet name="클럽분포" sheetId="10" r:id="rId10"/>
+    <sheet name="클럽분포1" sheetId="10" r:id="rId10"/>
+    <sheet name="클럽분포2" sheetId="11" r:id="rId11"/>
+    <sheet name="클럽분포3" sheetId="12" r:id="rId12"/>
+    <sheet name="클럽분포4" sheetId="13" r:id="rId13"/>
+    <sheet name="클럽분포5" sheetId="14" r:id="rId14"/>
+    <sheet name="클럽분포6" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="187">
   <si>
     <t>id</t>
   </si>
@@ -584,18 +589,6 @@
   </si>
   <si>
     <t>상대 반</t>
-  </si>
-  <si>
-    <t>같은 반 여부</t>
-  </si>
-  <si>
-    <t>다른 반</t>
-  </si>
-  <si>
-    <t>같은 반</t>
-  </si>
-  <si>
-    <t>인원수</t>
   </si>
 </sst>
 </file>
@@ -672,16 +665,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304809</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>554743</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129547</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -698,8 +691,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="0"/>
-          <a:ext cx="4572009" cy="4572009"/>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="3602743" cy="3749047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -708,36 +701,41 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304809</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>9</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>536455</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129547</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="club_plot_2.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="club_plot_2.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="5715000"/>
-          <a:ext cx="4572009" cy="4572009"/>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="3584455" cy="3749047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -746,36 +744,41 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304809</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>9</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>554743</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129547</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="club_plot_3.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="club_plot_3.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="11430000"/>
-          <a:ext cx="4572009" cy="4572009"/>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="3602743" cy="3749047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -784,36 +787,41 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304809</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>9</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>536455</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129547</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="club_plot_4.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="club_plot_4.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="17145000"/>
-          <a:ext cx="4572009" cy="4572009"/>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="3584455" cy="3749047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -822,36 +830,41 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304809</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>9</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>582175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129547</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="club_plot_5.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="club_plot_5.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="22860000"/>
-          <a:ext cx="4572009" cy="4572009"/>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="3630175" cy="3749047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -860,36 +873,41 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304809</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>9</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>536455</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129547</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="club_plot_6.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="club_plot_6.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="28575000"/>
-          <a:ext cx="4572009" cy="4572009"/>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="3584455" cy="3749047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6200,541 +6218,77 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B161"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>159</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>165</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>158</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>161</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>158</v>
-      </c>
-      <c r="B62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>160</v>
-      </c>
-      <c r="B63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>159</v>
-      </c>
-      <c r="B64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>161</v>
-      </c>
-      <c r="B65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>156</v>
-      </c>
-      <c r="B67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>165</v>
-      </c>
-      <c r="B68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>164</v>
-      </c>
-      <c r="B69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>163</v>
-      </c>
-      <c r="B70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>157</v>
-      </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>163</v>
-      </c>
-      <c r="B92">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>161</v>
-      </c>
-      <c r="B93">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>157</v>
-      </c>
-      <c r="B94">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>162</v>
-      </c>
-      <c r="B95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>159</v>
-      </c>
-      <c r="B96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>165</v>
-      </c>
-      <c r="B97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>158</v>
-      </c>
-      <c r="B98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>160</v>
-      </c>
-      <c r="B99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>164</v>
-      </c>
-      <c r="B100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>156</v>
-      </c>
-      <c r="B101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>163</v>
-      </c>
-      <c r="B122">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>159</v>
-      </c>
-      <c r="B123">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>157</v>
-      </c>
-      <c r="B124">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>161</v>
-      </c>
-      <c r="B125">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>162</v>
-      </c>
-      <c r="B126">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>164</v>
-      </c>
-      <c r="B127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>158</v>
-      </c>
-      <c r="B128">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>156</v>
-      </c>
-      <c r="B129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>165</v>
-      </c>
-      <c r="B130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>160</v>
-      </c>
-      <c r="B131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>163</v>
-      </c>
-      <c r="B152">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
-        <v>159</v>
-      </c>
-      <c r="B153">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>160</v>
-      </c>
-      <c r="B154">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>158</v>
-      </c>
-      <c r="B155">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>156</v>
-      </c>
-      <c r="B156">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>164</v>
-      </c>
-      <c r="B157">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>161</v>
-      </c>
-      <c r="B158">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>165</v>
-      </c>
-      <c r="B159">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
-        <v>157</v>
-      </c>
-      <c r="B160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
-        <v>162</v>
-      </c>
-      <c r="B161">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12263,13 +11817,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>182</v>
       </c>
@@ -12285,11 +11839,8 @@
       <c r="E1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>202501</v>
       </c>
@@ -12305,11 +11856,8 @@
       <c r="E2">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>202506</v>
       </c>
@@ -12325,11 +11873,8 @@
       <c r="E3">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>202562</v>
       </c>
@@ -12345,11 +11890,8 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>202569</v>
       </c>
@@ -12365,11 +11907,8 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>202587</v>
       </c>
@@ -12385,11 +11924,8 @@
       <c r="E6">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>202592</v>
       </c>
@@ -12405,11 +11941,8 @@
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>202593</v>
       </c>
@@ -12425,11 +11958,8 @@
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>202596</v>
       </c>
@@ -12445,11 +11975,8 @@
       <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>202598</v>
       </c>
@@ -12465,11 +11992,8 @@
       <c r="E10">
         <v>6</v>
       </c>
-      <c r="F10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>202615</v>
       </c>
@@ -12485,11 +12009,8 @@
       <c r="E11">
         <v>6</v>
       </c>
-      <c r="F11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>202628</v>
       </c>
@@ -12505,11 +12026,8 @@
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>202630</v>
       </c>
@@ -12525,11 +12043,8 @@
       <c r="E13">
         <v>5</v>
       </c>
-      <c r="F13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>202634</v>
       </c>
@@ -12545,11 +12060,8 @@
       <c r="E14">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>202644</v>
       </c>
@@ -12565,11 +12077,8 @@
       <c r="E15">
         <v>5</v>
       </c>
-      <c r="F15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>202647</v>
       </c>
@@ -12585,11 +12094,8 @@
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>202660</v>
       </c>
@@ -12605,11 +12111,8 @@
       <c r="E17">
         <v>5</v>
       </c>
-      <c r="F17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>202670</v>
       </c>
@@ -12625,11 +12128,8 @@
       <c r="E18">
         <v>6</v>
       </c>
-      <c r="F18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>202690</v>
       </c>
@@ -12645,11 +12145,8 @@
       <c r="E19">
         <v>4</v>
       </c>
-      <c r="F19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>202695</v>
       </c>
@@ -12665,11 +12162,8 @@
       <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>202700</v>
       </c>
@@ -12685,11 +12179,8 @@
       <c r="E21">
         <v>4</v>
       </c>
-      <c r="F21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>202501</v>
       </c>
@@ -12705,11 +12196,8 @@
       <c r="E22">
         <v>3</v>
       </c>
-      <c r="F22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>202504</v>
       </c>
@@ -12725,11 +12213,8 @@
       <c r="E23">
         <v>3</v>
       </c>
-      <c r="F23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>202509</v>
       </c>
@@ -12745,11 +12230,8 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>202515</v>
       </c>
@@ -12765,11 +12247,8 @@
       <c r="E25">
         <v>5</v>
       </c>
-      <c r="F25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>202521</v>
       </c>
@@ -12785,11 +12264,8 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>202562</v>
       </c>
@@ -12805,11 +12281,8 @@
       <c r="E27">
         <v>6</v>
       </c>
-      <c r="F27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>202568</v>
       </c>
@@ -12825,11 +12298,8 @@
       <c r="E28">
         <v>4</v>
       </c>
-      <c r="F28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>202577</v>
       </c>
@@ -12845,11 +12315,8 @@
       <c r="E29">
         <v>4</v>
       </c>
-      <c r="F29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>202598</v>
       </c>
@@ -12865,11 +12332,8 @@
       <c r="E30">
         <v>5</v>
       </c>
-      <c r="F30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>202601</v>
       </c>
@@ -12885,11 +12349,8 @@
       <c r="E31">
         <v>5</v>
       </c>
-      <c r="F31" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>202614</v>
       </c>
@@ -12905,11 +12366,8 @@
       <c r="E32">
         <v>5</v>
       </c>
-      <c r="F32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>202621</v>
       </c>
@@ -12925,11 +12383,8 @@
       <c r="E33">
         <v>2</v>
       </c>
-      <c r="F33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>202629</v>
       </c>
@@ -12945,11 +12400,8 @@
       <c r="E34">
         <v>6</v>
       </c>
-      <c r="F34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>202658</v>
       </c>
@@ -12965,11 +12417,8 @@
       <c r="E35">
         <v>3</v>
       </c>
-      <c r="F35" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>202676</v>
       </c>
@@ -12985,11 +12434,8 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>202677</v>
       </c>
@@ -13005,11 +12451,8 @@
       <c r="E37">
         <v>6</v>
       </c>
-      <c r="F37" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>202681</v>
       </c>
@@ -13025,11 +12468,8 @@
       <c r="E38">
         <v>5</v>
       </c>
-      <c r="F38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>202690</v>
       </c>
@@ -13045,11 +12485,8 @@
       <c r="E39">
         <v>4</v>
       </c>
-      <c r="F39" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>202699</v>
       </c>
@@ -13065,11 +12502,8 @@
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="F40" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>202700</v>
       </c>
@@ -13084,9 +12518,6 @@
       </c>
       <c r="E41">
         <v>5</v>
-      </c>
-      <c r="F41" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
